--- a/simulations/raw_inclusion_exclusion/Leenaars_2020 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Leenaars_2020 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -716,10 +716,10 @@
         <v>0.4751286449399657</v>
       </c>
       <c r="D3">
-        <v>0.8216123499142367</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="E3">
-        <v>0.9828473413379074</v>
+        <v>0.9845626072041166</v>
       </c>
       <c r="F3">
         <v>0.9982847341337907</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.5724778270509978</v>
+        <v>0.5695676274944568</v>
       </c>
       <c r="I3">
-        <v>0.1135902689370342</v>
+        <v>0.1131247965174388</v>
       </c>
       <c r="J3">
         <v>0.3756432246998285</v>
       </c>
       <c r="K3">
-        <v>1045.444253859348</v>
+        <v>1042.356775300171</v>
       </c>
       <c r="L3">
         <v>58</v>
@@ -755,34 +755,34 @@
         <v>524</v>
       </c>
       <c r="Q3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="R3">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="S3">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="T3">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="U3">
-        <v>1774</v>
+        <v>1714</v>
       </c>
       <c r="V3">
-        <v>6586</v>
+        <v>6596</v>
       </c>
       <c r="W3">
-        <v>6508</v>
+        <v>6490</v>
       </c>
       <c r="X3">
-        <v>6144</v>
+        <v>6141</v>
       </c>
       <c r="Y3">
-        <v>5560</v>
+        <v>5553</v>
       </c>
       <c r="Z3">
-        <v>4859</v>
+        <v>4919</v>
       </c>
       <c r="AA3">
         <v>525</v>
@@ -800,19 +800,19 @@
         <v>59</v>
       </c>
       <c r="AF3">
-        <v>0.992914</v>
+        <v>0.994422</v>
       </c>
       <c r="AG3">
-        <v>0.981155</v>
+        <v>0.978441</v>
       </c>
       <c r="AH3">
-        <v>0.926278</v>
+        <v>0.925825</v>
       </c>
       <c r="AI3">
-        <v>0.838233</v>
+        <v>0.837178</v>
       </c>
       <c r="AJ3">
-        <v>0.732549</v>
+        <v>0.741595</v>
       </c>
     </row>
   </sheetData>
